--- a/tablaterv.xlsx
+++ b/tablaterv.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="2">
   <si>
     <t>Start</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -57,7 +60,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -66,9 +69,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -81,88 +123,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -192,32 +156,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -411,6 +349,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -418,9 +369,20 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -428,124 +390,112 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -554,97 +504,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -927,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,224 +840,358 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
+      <c r="A1" s="13">
         <v>20</v>
       </c>
-      <c r="B1" s="21">
+      <c r="B1" s="8">
         <v>21</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="5">
         <v>22</v>
       </c>
-      <c r="D1" s="28">
+      <c r="D1" s="32">
         <v>23</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="42">
+      <c r="E1" s="33">
+        <v>23</v>
+      </c>
+      <c r="F1" s="34">
+        <v>23</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="23">
         <v>30</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="14">
+      <c r="J1" s="14">
+        <v>30</v>
+      </c>
+      <c r="K1" s="24">
+        <v>30</v>
+      </c>
+      <c r="L1" s="5">
         <v>31</v>
       </c>
-      <c r="M1" s="20">
+      <c r="M1" s="7">
         <v>32</v>
       </c>
-      <c r="N1" s="27">
+      <c r="N1" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="1">
         <v>19</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="31">
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="38">
         <v>24</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="32">
+      <c r="E2" s="39">
+        <v>24</v>
+      </c>
+      <c r="F2" s="40">
+        <v>24</v>
+      </c>
+      <c r="G2" s="31">
         <v>26</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="28">
         <v>27</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="25">
         <v>29</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="7">
+      <c r="J2" s="26">
+        <v>29</v>
+      </c>
+      <c r="K2" s="27">
+        <v>29</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="2">
         <v>18</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="34">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="35">
         <v>25</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="16">
+      <c r="E3" s="36">
+        <v>25</v>
+      </c>
+      <c r="F3" s="37">
+        <v>25</v>
+      </c>
+      <c r="G3" s="29">
+        <v>26</v>
+      </c>
+      <c r="H3" s="29">
+        <v>27</v>
+      </c>
+      <c r="I3" s="19">
         <v>28</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="11">
+      <c r="J3" s="15">
+        <v>28</v>
+      </c>
+      <c r="K3" s="20">
+        <v>28</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="2">
         <v>17</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="11">
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>25</v>
+      </c>
+      <c r="E4" s="17">
+        <v>25</v>
+      </c>
+      <c r="F4" s="18">
+        <v>25</v>
+      </c>
+      <c r="G4" s="30">
+        <v>26</v>
+      </c>
+      <c r="H4" s="30">
+        <v>27</v>
+      </c>
+      <c r="I4" s="21">
+        <v>28</v>
+      </c>
+      <c r="J4" s="17">
+        <v>28</v>
+      </c>
+      <c r="K4" s="22">
+        <v>28</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="2">
         <v>16</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="11">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="2">
         <v>15</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="11">
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="3">
         <v>14</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="11">
+      <c r="B7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="13">
         <v>13</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="4">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="5">
         <v>11</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="5">
         <v>10</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="5">
         <v>9</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="5">
         <v>8</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="5">
         <v>7</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="5">
         <v>6</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="5">
         <v>5</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="5">
         <v>4</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="5">
         <v>3</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="5">
         <v>2</v>
       </c>
-      <c r="M8" s="15">
-        <v>1</v>
-      </c>
-      <c r="N8" s="12" t="s">
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I3:K4"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>